--- a/simuladorDeMenus/Resources/dados.xlsx
+++ b/simuladorDeMenus/Resources/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkg\source\repos\simuladorDeMenus\simuladorDeMenus\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkg\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B20151-16F7-469D-927A-C95468C9EF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C274A5A-A028-4F85-983E-E99B6EF65549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{07A3B3BA-028E-49E8-9C81-FCE4C5E74F90}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Nome</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Teste</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -137,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,7 +154,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBCA977-0EFC-4AAC-B06F-73A3021ECDE5}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,20 +507,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
+      <c r="B2" s="5">
+        <v>19</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="7"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
